--- a/reports/resnet18_23_no_MMTM/prediction/2/probability_val_2.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/2/probability_val_2.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4143866002559662</v>
+        <v>0.5683113932609558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5856134295463562</v>
+        <v>0.4316885769367218</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2616471648216248</v>
+        <v>0.6357748508453369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.73835289478302</v>
+        <v>0.3642251193523407</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5201565623283386</v>
+        <v>0.7824669480323792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4798434376716614</v>
+        <v>0.2175330370664597</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5580970644950867</v>
+        <v>0.2868933975696564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4419029653072357</v>
+        <v>0.713106632232666</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3340466916561127</v>
+        <v>0.3849182426929474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6659532785415649</v>
+        <v>0.615081787109375</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3288211226463318</v>
+        <v>0.6035001277923584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6711788773536682</v>
+        <v>0.3964999318122864</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2961260080337524</v>
+        <v>0.5749898552894592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7038739919662476</v>
+        <v>0.4250101447105408</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.162924200296402</v>
+        <v>0.2657782733440399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8370758295059204</v>
+        <v>0.7342216968536377</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2921976149082184</v>
+        <v>0.2939620614051819</v>
       </c>
       <c r="C10" t="n">
-        <v>0.707802414894104</v>
+        <v>0.7060378789901733</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2698927223682404</v>
+        <v>0.2908616662025452</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7301072478294373</v>
+        <v>0.7091383934020996</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2344195246696472</v>
+        <v>0.3333106338977814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.765580415725708</v>
+        <v>0.666689395904541</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2318741083145142</v>
+        <v>0.2673101723194122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7681258916854858</v>
+        <v>0.7326898574829102</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2358064353466034</v>
+        <v>0.1288725733757019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.764193594455719</v>
+        <v>0.8711274266242981</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1347504556179047</v>
+        <v>0.1466557532548904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8652495145797729</v>
+        <v>0.853344202041626</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1858794838190079</v>
+        <v>0.1050080358982086</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8141205310821533</v>
+        <v>0.8949919939041138</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1548958420753479</v>
+        <v>0.2614330649375916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8451042175292969</v>
+        <v>0.7385668754577637</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1445004642009735</v>
+        <v>0.433751106262207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8554995059967041</v>
+        <v>0.566248893737793</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1805917471647263</v>
+        <v>0.1099535822868347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8194082975387573</v>
+        <v>0.8900464773178101</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1977236568927765</v>
+        <v>0.1846028715372086</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8022763133049011</v>
+        <v>0.8153971433639526</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2153176963329315</v>
+        <v>0.430503636598587</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7846822738647461</v>
+        <v>0.5694963335990906</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
